--- a/webapp/Files/generate/G25I/G25I_2019_04_30.xlsx
+++ b/webapp/Files/generate/G25I/G25I_2019_04_30.xlsx
@@ -14,7 +14,7 @@
     <definedName localSheetId="0" name="_xlnm.Print_Titles">'G25-I FINAL'!$1:$5</definedName>
     <definedName localSheetId="0" name="_xlnm.Print_Area">'G25-I FINAL'!$A$1:$E$190</definedName>
   </definedNames>
-  <calcPr calcId="125725" concurrentCalc="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="125725" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -3079,7 +3079,7 @@
         <v>19</v>
       </c>
       <c r="C8" s="84" t="n">
-        <v>7113.25</v>
+        <v>6.14</v>
       </c>
       <c r="D8" s="20" t="n"/>
       <c r="E8" s="138" t="n"/>
@@ -3095,13 +3095,13 @@
         <v>20</v>
       </c>
       <c r="C9" s="86" t="n">
-        <v>777</v>
+        <v>0</v>
       </c>
       <c r="D9" s="22" t="n">
         <v>1</v>
       </c>
       <c r="E9" s="87" t="n">
-        <v>777</v>
+        <v>0</v>
       </c>
       <c r="G9" s="38" t="s">
         <v>18</v>
@@ -3139,7 +3139,7 @@
         <v>24</v>
       </c>
       <c r="C11" s="89" t="n">
-        <v>5670</v>
+        <v>0</v>
       </c>
       <c r="D11" s="20" t="n"/>
       <c r="E11" s="140" t="n"/>
@@ -3180,13 +3180,13 @@
         <v>28</v>
       </c>
       <c r="C13" s="91" t="n">
-        <v>5670</v>
+        <v>0</v>
       </c>
       <c r="D13" s="22" t="n">
         <v>1</v>
       </c>
       <c r="E13" s="87" t="n">
-        <v>5670</v>
+        <v>0</v>
       </c>
       <c r="F13" s="38" t="n"/>
       <c r="G13" s="38" t="s">
@@ -3326,13 +3326,13 @@
         <v>40</v>
       </c>
       <c r="C20" s="86" t="n">
-        <v>666.25</v>
+        <v>6.14</v>
       </c>
       <c r="D20" s="22" t="n">
         <v>0.85</v>
       </c>
       <c r="E20" s="87" t="n">
-        <v>566.3125</v>
+        <v>5.218999999999999</v>
       </c>
       <c r="G20" s="38" t="s">
         <v>18</v>
@@ -3444,7 +3444,7 @@
         <v>0.85</v>
       </c>
       <c r="E26" s="87" t="n">
-        <v>566.3125</v>
+        <v>5.218999999999999</v>
       </c>
       <c r="F26" s="38" t="s">
         <v>49</v>
@@ -5874,7 +5874,7 @@
         <v>251</v>
       </c>
       <c r="C153" s="106" t="n">
-        <v>6447</v>
+        <v>0</v>
       </c>
       <c r="G153" s="38" t="s">
         <v>18</v>
@@ -5888,7 +5888,7 @@
         <v>252</v>
       </c>
       <c r="C154" s="106" t="n">
-        <v>1132.625</v>
+        <v>10.438</v>
       </c>
       <c r="F154" s="38" t="s">
         <v>144</v>
@@ -6227,13 +6227,13 @@
         <v>277</v>
       </c>
       <c r="C179" s="111" t="n">
-        <v>6447</v>
+        <v>0</v>
       </c>
       <c r="D179" s="22" t="n">
         <v>1</v>
       </c>
       <c r="E179" s="95" t="n">
-        <v>6447</v>
+        <v>0</v>
       </c>
       <c r="F179" s="38" t="s">
         <v>46</v>

--- a/webapp/Files/generate/G25I/G25I_2019_04_30.xlsx
+++ b/webapp/Files/generate/G25I/G25I_2019_04_30.xlsx
@@ -14,7 +14,7 @@
     <definedName localSheetId="0" name="_xlnm.Print_Titles">'G25-I FINAL'!$1:$5</definedName>
     <definedName localSheetId="0" name="_xlnm.Print_Area">'G25-I FINAL'!$A$1:$E$190</definedName>
   </definedNames>
-  <calcPr calcId="125725" fullCalcOnLoad="1"/>
+  <calcPr calcId="125725" concurrentCalc="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -3079,7 +3079,7 @@
         <v>19</v>
       </c>
       <c r="C8" s="84" t="n">
-        <v>6.14</v>
+        <v>536.61</v>
       </c>
       <c r="D8" s="20" t="n"/>
       <c r="E8" s="138" t="n"/>
@@ -3095,13 +3095,13 @@
         <v>20</v>
       </c>
       <c r="C9" s="86" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D9" s="22" t="n">
         <v>1</v>
       </c>
       <c r="E9" s="87" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G9" s="38" t="s">
         <v>18</v>
@@ -3139,7 +3139,7 @@
         <v>24</v>
       </c>
       <c r="C11" s="89" t="n">
-        <v>0</v>
+        <v>532</v>
       </c>
       <c r="D11" s="20" t="n"/>
       <c r="E11" s="140" t="n"/>
@@ -3180,13 +3180,13 @@
         <v>28</v>
       </c>
       <c r="C13" s="91" t="n">
-        <v>0</v>
+        <v>532</v>
       </c>
       <c r="D13" s="22" t="n">
         <v>1</v>
       </c>
       <c r="E13" s="87" t="n">
-        <v>0</v>
+        <v>532</v>
       </c>
       <c r="F13" s="38" t="n"/>
       <c r="G13" s="38" t="s">
@@ -3326,13 +3326,13 @@
         <v>40</v>
       </c>
       <c r="C20" s="86" t="n">
-        <v>6.14</v>
+        <v>1.61</v>
       </c>
       <c r="D20" s="22" t="n">
         <v>0.85</v>
       </c>
       <c r="E20" s="87" t="n">
-        <v>5.218999999999999</v>
+        <v>1.3685</v>
       </c>
       <c r="G20" s="38" t="s">
         <v>18</v>
@@ -3444,7 +3444,7 @@
         <v>0.85</v>
       </c>
       <c r="E26" s="87" t="n">
-        <v>5.218999999999999</v>
+        <v>1.3685</v>
       </c>
       <c r="F26" s="38" t="s">
         <v>49</v>
@@ -5874,7 +5874,7 @@
         <v>251</v>
       </c>
       <c r="C153" s="106" t="n">
-        <v>0</v>
+        <v>535</v>
       </c>
       <c r="G153" s="38" t="s">
         <v>18</v>
@@ -5888,7 +5888,7 @@
         <v>252</v>
       </c>
       <c r="C154" s="106" t="n">
-        <v>10.438</v>
+        <v>2.737</v>
       </c>
       <c r="F154" s="38" t="s">
         <v>144</v>
@@ -6227,13 +6227,13 @@
         <v>277</v>
       </c>
       <c r="C179" s="111" t="n">
-        <v>0</v>
+        <v>535</v>
       </c>
       <c r="D179" s="22" t="n">
         <v>1</v>
       </c>
       <c r="E179" s="95" t="n">
-        <v>0</v>
+        <v>535</v>
       </c>
       <c r="F179" s="38" t="s">
         <v>46</v>
